--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H2">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I2">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J2">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N2">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O2">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P2">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q2">
-        <v>1.5348624492</v>
+        <v>1.9608321353835</v>
       </c>
       <c r="R2">
-        <v>6.1394497968</v>
+        <v>7.843328541533999</v>
       </c>
       <c r="S2">
-        <v>0.004573303442518922</v>
+        <v>0.002482422771182999</v>
       </c>
       <c r="T2">
-        <v>0.002268018720629296</v>
+        <v>0.001186097198581463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H3">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I3">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J3">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>38.655654</v>
       </c>
       <c r="O3">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P3">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q3">
-        <v>16.382568967823</v>
+        <v>13.921144428937</v>
       </c>
       <c r="R3">
-        <v>98.295413806938</v>
+        <v>83.526866573622</v>
       </c>
       <c r="S3">
-        <v>0.0488137937682296</v>
+        <v>0.01762423478670787</v>
       </c>
       <c r="T3">
-        <v>0.03631202241971865</v>
+        <v>0.01263124219833896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H4">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I4">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J4">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N4">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O4">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P4">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q4">
-        <v>19.65149499070117</v>
+        <v>21.68973402165834</v>
       </c>
       <c r="R4">
-        <v>117.908969944207</v>
+        <v>130.13840412995</v>
       </c>
       <c r="S4">
-        <v>0.05855394386543247</v>
+        <v>0.02745930600823033</v>
       </c>
       <c r="T4">
-        <v>0.04355760858293242</v>
+        <v>0.01968001158551581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H5">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I5">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J5">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N5">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O5">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P5">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q5">
-        <v>4.8277005576505</v>
+        <v>3.9055047803165</v>
       </c>
       <c r="R5">
-        <v>19.310802230602</v>
+        <v>15.622019121266</v>
       </c>
       <c r="S5">
-        <v>0.01438470241503485</v>
+        <v>0.004944387550913717</v>
       </c>
       <c r="T5">
-        <v>0.007133743644618329</v>
+        <v>0.002362419605120315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H6">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I6">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J6">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N6">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O6">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P6">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q6">
-        <v>0.9657410812046666</v>
+        <v>50.235250080325</v>
       </c>
       <c r="R6">
-        <v>5.794446487228</v>
+        <v>301.41150048195</v>
       </c>
       <c r="S6">
-        <v>0.002877539295822423</v>
+        <v>0.06359806454879499</v>
       </c>
       <c r="T6">
-        <v>0.00214056854338439</v>
+        <v>0.04558056371714291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H7">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I7">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J7">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N7">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O7">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P7">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q7">
-        <v>22.673623302763</v>
+        <v>10.84701519920333</v>
       </c>
       <c r="R7">
-        <v>136.041739816578</v>
+        <v>65.08209119522</v>
       </c>
       <c r="S7">
-        <v>0.06755873111557993</v>
+        <v>0.01373237262077209</v>
       </c>
       <c r="T7">
-        <v>0.0502561667418143</v>
+        <v>0.00984195493478285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.776986</v>
       </c>
       <c r="I8">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J8">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N8">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O8">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P8">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q8">
-        <v>0.7150591664</v>
+        <v>1.075028551378</v>
       </c>
       <c r="R8">
-        <v>4.2903549984</v>
+        <v>6.450171308268</v>
       </c>
       <c r="S8">
-        <v>0.002130603005504703</v>
+        <v>0.001360991238085089</v>
       </c>
       <c r="T8">
-        <v>0.001584931187089184</v>
+        <v>0.0009754188006525749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.776986</v>
       </c>
       <c r="I9">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J9">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>38.655654</v>
       </c>
       <c r="O9">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P9">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q9">
         <v>7.632283997649333</v>
@@ -1013,10 +1013,10 @@
         <v>68.69055597884399</v>
       </c>
       <c r="S9">
-        <v>0.02274128909657331</v>
+        <v>0.00966250769252858</v>
       </c>
       <c r="T9">
-        <v>0.02537547696401953</v>
+        <v>0.01038764034734358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.776986</v>
       </c>
       <c r="I10">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J10">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N10">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O10">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P10">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q10">
-        <v>9.155205819185111</v>
+        <v>11.89142248554444</v>
       </c>
       <c r="R10">
-        <v>82.396852372666</v>
+        <v>107.0228023699</v>
       </c>
       <c r="S10">
-        <v>0.02727901403260712</v>
+        <v>0.01505459719227808</v>
       </c>
       <c r="T10">
-        <v>0.03043881941986709</v>
+        <v>0.01618438465290262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.776986</v>
       </c>
       <c r="I11">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J11">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N11">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O11">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P11">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q11">
-        <v>2.249121110612666</v>
+        <v>2.141197642888667</v>
       </c>
       <c r="R11">
-        <v>13.494726663676</v>
+        <v>12.847185857332</v>
       </c>
       <c r="S11">
-        <v>0.006701521249130894</v>
+        <v>0.002710766358013921</v>
       </c>
       <c r="T11">
-        <v>0.004985184945879853</v>
+        <v>0.001942799039252871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.776986</v>
       </c>
       <c r="I12">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J12">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N12">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O12">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P12">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q12">
-        <v>0.4499178495404444</v>
+        <v>27.54153563043333</v>
       </c>
       <c r="R12">
-        <v>4.049260645864</v>
+        <v>247.8738206739</v>
       </c>
       <c r="S12">
-        <v>0.001340583223745223</v>
+        <v>0.03486771456291125</v>
       </c>
       <c r="T12">
-        <v>0.00149586677202146</v>
+        <v>0.03748439743995419</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.776986</v>
       </c>
       <c r="I13">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J13">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N13">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O13">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P13">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q13">
-        <v>10.56314993346267</v>
+        <v>5.946888989604444</v>
       </c>
       <c r="R13">
-        <v>95.068349401164</v>
+        <v>53.52200090644</v>
       </c>
       <c r="S13">
-        <v>0.03147414934786348</v>
+        <v>0.007528789629207213</v>
       </c>
       <c r="T13">
-        <v>0.03511988912973121</v>
+        <v>0.008093795255602937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H14">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I14">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J14">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N14">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O14">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P14">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q14">
-        <v>1.5338027288</v>
+        <v>2.438073253569</v>
       </c>
       <c r="R14">
-        <v>9.202816372800001</v>
+        <v>14.628439521414</v>
       </c>
       <c r="S14">
-        <v>0.004570145880773925</v>
+        <v>0.003086612287332893</v>
       </c>
       <c r="T14">
-        <v>0.003399679206905995</v>
+        <v>0.00221216681719851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H15">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I15">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J15">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>38.655654</v>
       </c>
       <c r="O15">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P15">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q15">
-        <v>16.37125789395533</v>
+        <v>17.309370485518</v>
       </c>
       <c r="R15">
-        <v>147.341321045598</v>
+        <v>155.784334369662</v>
       </c>
       <c r="S15">
-        <v>0.04878009109142978</v>
+        <v>0.02191374502320102</v>
       </c>
       <c r="T15">
-        <v>0.05443042707635542</v>
+        <v>0.02355828416472218</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H16">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I16">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J16">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N16">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O16">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P16">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q16">
-        <v>19.63792694091078</v>
+        <v>26.96873405988334</v>
       </c>
       <c r="R16">
-        <v>176.741342468197</v>
+        <v>242.71860653895</v>
       </c>
       <c r="S16">
-        <v>0.0585135162630457</v>
+        <v>0.03414254506143089</v>
       </c>
       <c r="T16">
-        <v>0.06529130242842877</v>
+        <v>0.03670480686037152</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H17">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I17">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J17">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N17">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O17">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P17">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q17">
-        <v>4.824367351623667</v>
+        <v>4.856054006231</v>
       </c>
       <c r="R17">
-        <v>28.946204109742</v>
+        <v>29.136324037386</v>
       </c>
       <c r="S17">
-        <v>0.01437477073509501</v>
+        <v>0.006147787373346259</v>
       </c>
       <c r="T17">
-        <v>0.01069322740390675</v>
+        <v>0.004406102859863921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H18">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I18">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J18">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N18">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O18">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P18">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q18">
-        <v>0.9650743012431111</v>
+        <v>62.46185861455</v>
       </c>
       <c r="R18">
-        <v>8.685668711188001</v>
+        <v>562.15672753095</v>
       </c>
       <c r="S18">
-        <v>0.002875552546394047</v>
+        <v>0.07907700886636369</v>
       </c>
       <c r="T18">
-        <v>0.003208635934839983</v>
+        <v>0.08501142291277458</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H19">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I19">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J19">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N19">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O19">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P19">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q19">
-        <v>22.65796867444867</v>
+        <v>13.48703805951333</v>
       </c>
       <c r="R19">
-        <v>203.921718070038</v>
+        <v>121.38334253562</v>
       </c>
       <c r="S19">
-        <v>0.06751208630672519</v>
+        <v>0.01707465406680492</v>
       </c>
       <c r="T19">
-        <v>0.07533220230366548</v>
+        <v>0.01835603873706849</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H20">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I20">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J20">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N20">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O20">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P20">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q20">
-        <v>0.1985252472</v>
+        <v>0.3826856532045</v>
       </c>
       <c r="R20">
-        <v>0.7941009888</v>
+        <v>1.530742612818</v>
       </c>
       <c r="S20">
-        <v>0.0005915293562103258</v>
+        <v>0.0004844818496072292</v>
       </c>
       <c r="T20">
-        <v>0.0002933546112890066</v>
+        <v>0.0002314845687259202</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H21">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I21">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J21">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>38.655654</v>
       </c>
       <c r="O21">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P21">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q21">
-        <v>2.118986985318</v>
+        <v>2.716919083999</v>
       </c>
       <c r="R21">
-        <v>12.713921911908</v>
+        <v>16.301514503994</v>
       </c>
       <c r="S21">
-        <v>0.006313771295700548</v>
+        <v>0.003439632429454076</v>
       </c>
       <c r="T21">
-        <v>0.004696742194040893</v>
+        <v>0.002465175414166801</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H22">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I22">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J22">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N22">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O22">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P22">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q22">
-        <v>2.541802949777</v>
+        <v>4.233075275608334</v>
       </c>
       <c r="R22">
-        <v>15.250817698662</v>
+        <v>25.39845165365</v>
       </c>
       <c r="S22">
-        <v>0.007573601260802741</v>
+        <v>0.005359093349541961</v>
       </c>
       <c r="T22">
-        <v>0.005633915283988238</v>
+        <v>0.003840847950608624</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H23">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I23">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J23">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N23">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O23">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P23">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q23">
-        <v>0.624434096433</v>
+        <v>0.7622175406955001</v>
       </c>
       <c r="R23">
-        <v>2.497736385732</v>
+        <v>3.048870162782</v>
       </c>
       <c r="S23">
-        <v>0.001860574935774662</v>
+        <v>0.000964971016882864</v>
       </c>
       <c r="T23">
-        <v>0.0009227069313262879</v>
+        <v>0.0004610614409130783</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H24">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I24">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J24">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N24">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O24">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P24">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q24">
-        <v>0.124912813508</v>
+        <v>9.804158726275</v>
       </c>
       <c r="R24">
-        <v>0.7494768810479999</v>
+        <v>58.82495235765001</v>
       </c>
       <c r="S24">
-        <v>0.0003721924399991767</v>
+        <v>0.01241211138639235</v>
       </c>
       <c r="T24">
-        <v>0.0002768696956821281</v>
+        <v>0.008895727219460659</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H25">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I25">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J25">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N25">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O25">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P25">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q25">
-        <v>2.932697111358</v>
+        <v>2.116956888823334</v>
       </c>
       <c r="R25">
-        <v>17.596182668148</v>
+        <v>12.70174133294</v>
       </c>
       <c r="S25">
-        <v>0.008738316454500201</v>
+        <v>0.002680077448547093</v>
       </c>
       <c r="T25">
-        <v>0.006500333584252692</v>
+        <v>0.00192080437945801</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8809556666666666</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H26">
-        <v>2.642867</v>
+        <v>13.24217</v>
       </c>
       <c r="I26">
-        <v>0.1363342828980721</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J26">
-        <v>0.1472404836661527</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N26">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O26">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P26">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q26">
-        <v>1.0634896808</v>
+        <v>8.01115531141</v>
       </c>
       <c r="R26">
-        <v>6.3809380848</v>
+        <v>48.06693186846</v>
       </c>
       <c r="S26">
-        <v>0.003168792761084893</v>
+        <v>0.0101421605703327</v>
       </c>
       <c r="T26">
-        <v>0.002357228662256669</v>
+        <v>0.007268859506736411</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8809556666666666</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H27">
-        <v>2.642867</v>
+        <v>13.24217</v>
       </c>
       <c r="I27">
-        <v>0.1363342828980721</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J27">
-        <v>0.1472404836661527</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>38.655654</v>
       </c>
       <c r="O27">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P27">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q27">
-        <v>11.35130581333533</v>
+        <v>56.87608241435334</v>
       </c>
       <c r="R27">
-        <v>102.161752320018</v>
+        <v>511.8847417291801</v>
       </c>
       <c r="S27">
-        <v>0.03382255262044463</v>
+        <v>0.07200538973901381</v>
       </c>
       <c r="T27">
-        <v>0.0377403145986898</v>
+        <v>0.07740910698136208</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8809556666666666</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H28">
-        <v>2.642867</v>
+        <v>13.24217</v>
       </c>
       <c r="I28">
-        <v>0.1363342828980721</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J28">
-        <v>0.1472404836661527</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N28">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O28">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P28">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q28">
-        <v>13.61630949131411</v>
+        <v>88.61535099061113</v>
       </c>
       <c r="R28">
-        <v>122.546785421827</v>
+        <v>797.5381589155002</v>
       </c>
       <c r="S28">
-        <v>0.04057139784968159</v>
+        <v>0.1121874540945562</v>
       </c>
       <c r="T28">
-        <v>0.04527089766814475</v>
+        <v>0.1206066749648717</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8809556666666666</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H29">
-        <v>2.642867</v>
+        <v>13.24217</v>
       </c>
       <c r="I29">
-        <v>0.1363342828980721</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J29">
-        <v>0.1472404836661527</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N29">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O29">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P29">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q29">
-        <v>3.345061785653666</v>
+        <v>15.95628957725667</v>
       </c>
       <c r="R29">
-        <v>20.070370713922</v>
+        <v>95.73773746354003</v>
       </c>
       <c r="S29">
-        <v>0.009967005569614404</v>
+        <v>0.02020073818426324</v>
       </c>
       <c r="T29">
-        <v>0.007414341352358796</v>
+        <v>0.01447781533091605</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8809556666666666</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H30">
-        <v>2.642867</v>
+        <v>13.24217</v>
       </c>
       <c r="I30">
-        <v>0.1363342828980721</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J30">
-        <v>0.1472404836661527</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N30">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O30">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P30">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q30">
-        <v>0.6691516068564444</v>
+        <v>205.2406135328334</v>
       </c>
       <c r="R30">
-        <v>6.022364461707999</v>
+        <v>1847.1655217955</v>
       </c>
       <c r="S30">
-        <v>0.001993816024881381</v>
+        <v>0.2598355888867703</v>
       </c>
       <c r="T30">
-        <v>0.002224765376976543</v>
+        <v>0.2793352132472839</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8809556666666666</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H31">
-        <v>2.642867</v>
+        <v>13.24217</v>
       </c>
       <c r="I31">
-        <v>0.1363342828980721</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J31">
-        <v>0.1472404836661527</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N31">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O31">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P31">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q31">
-        <v>15.71030969022867</v>
+        <v>44.31645211131112</v>
       </c>
       <c r="R31">
-        <v>141.392787212058</v>
+        <v>398.8480690018001</v>
       </c>
       <c r="S31">
-        <v>0.04681071807236518</v>
+        <v>0.05610483828471292</v>
       </c>
       <c r="T31">
-        <v>0.0522329360077262</v>
+        <v>0.06031528257391311</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>2.282028</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H32">
-        <v>6.846084</v>
+        <v>2.039834</v>
       </c>
       <c r="I32">
-        <v>0.3531603946774337</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J32">
-        <v>0.3814118226074599</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N32">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O32">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P32">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q32">
-        <v>2.7548642016</v>
+        <v>1.234044494482</v>
       </c>
       <c r="R32">
-        <v>16.5291852096</v>
+        <v>7.404266966891999</v>
       </c>
       <c r="S32">
-        <v>0.008208442354828718</v>
+        <v>0.001562306175258589</v>
       </c>
       <c r="T32">
-        <v>0.006106166306899586</v>
+        <v>0.001119700680708989</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>2.282028</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H33">
-        <v>6.846084</v>
+        <v>2.039834</v>
       </c>
       <c r="I33">
-        <v>0.3531603946774337</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J33">
-        <v>0.3814118226074599</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>38.655654</v>
       </c>
       <c r="O33">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P33">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q33">
-        <v>29.404428262104</v>
+        <v>8.761235257937333</v>
       </c>
       <c r="R33">
-        <v>264.639854358936</v>
+        <v>78.85111732143599</v>
       </c>
       <c r="S33">
-        <v>0.08761395724188319</v>
+        <v>0.01109176533550706</v>
       </c>
       <c r="T33">
-        <v>0.09776252983182911</v>
+        <v>0.01192415807456178</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>2.282028</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H34">
-        <v>6.846084</v>
+        <v>2.039834</v>
       </c>
       <c r="I34">
-        <v>0.3531603946774337</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J34">
-        <v>0.3814118226074599</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N34">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O34">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P34">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q34">
-        <v>35.271694923556</v>
+        <v>13.65037647701111</v>
       </c>
       <c r="R34">
-        <v>317.445254312004</v>
+        <v>122.8533882931</v>
       </c>
       <c r="S34">
-        <v>0.1050961693026322</v>
+        <v>0.01728144127703502</v>
       </c>
       <c r="T34">
-        <v>0.1172697559852702</v>
+        <v>0.01857834450247157</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>2.282028</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H35">
-        <v>6.846084</v>
+        <v>2.039834</v>
       </c>
       <c r="I35">
-        <v>0.3531603946774337</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J35">
-        <v>0.3814118226074599</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N35">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O35">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P35">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q35">
-        <v>8.665049724324</v>
+        <v>2.457919056584667</v>
       </c>
       <c r="R35">
-        <v>51.990298345944</v>
+        <v>14.747514339508</v>
       </c>
       <c r="S35">
-        <v>0.02581853621769391</v>
+        <v>0.003111737167953472</v>
       </c>
       <c r="T35">
-        <v>0.01920611355127667</v>
+        <v>0.002230173752317317</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>2.282028</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H36">
-        <v>6.846084</v>
+        <v>2.039834</v>
       </c>
       <c r="I36">
-        <v>0.3531603946774337</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J36">
-        <v>0.3814118226074599</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N36">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O36">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P36">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q36">
-        <v>1.733370657424</v>
+        <v>31.61542116323333</v>
       </c>
       <c r="R36">
-        <v>15.600335916816</v>
+        <v>284.5387904691</v>
       </c>
       <c r="S36">
-        <v>0.005164782029093416</v>
+        <v>0.04002527294403078</v>
       </c>
       <c r="T36">
-        <v>0.005763033346389767</v>
+        <v>0.04302901000206613</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>2.282028</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H37">
-        <v>6.846084</v>
+        <v>2.039834</v>
       </c>
       <c r="I37">
-        <v>0.3531603946774337</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J37">
-        <v>0.3814118226074599</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N37">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O37">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P37">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q37">
-        <v>40.695994087224</v>
+        <v>6.826540195151112</v>
       </c>
       <c r="R37">
-        <v>366.263946785016</v>
+        <v>61.43886175636</v>
       </c>
       <c r="S37">
-        <v>0.1212585075313023</v>
+        <v>0.008642432222034537</v>
       </c>
       <c r="T37">
-        <v>0.1353042235857946</v>
+        <v>0.009291012282267593</v>
       </c>
     </row>
   </sheetData>
